--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -151,9 +151,6 @@
     <t>System exception.</t>
   </si>
   <si>
-    <t>demoProcessQueue</t>
-  </si>
-  <si>
     <t>ProjectId</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>IsupplierDevUserid</t>
+  </si>
+  <si>
+    <t>MassUploadData</t>
   </si>
 </sst>
 </file>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,18 +625,18 @@
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -677,49 +677,49 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -901,24 +901,24 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
         <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -971,18 +971,18 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -214,16 +214,28 @@
     <t>Isupplier</t>
   </si>
   <si>
+    <t>IsupplierDev</t>
+  </si>
+  <si>
+    <t>IsupplierDevUserid</t>
+  </si>
+  <si>
+    <t>MassUploadData</t>
+  </si>
+  <si>
     <t>https://devprj-oscaroltp.int.bkrh.oracleoutsourcing.com/OA_HTML/OA.jsp?OAFunc=OAHOMEPAGE</t>
   </si>
   <si>
-    <t>IsupplierDev</t>
-  </si>
-  <si>
-    <t>IsupplierDevUserid</t>
-  </si>
-  <si>
-    <t>MassUploadData</t>
+    <t>InputExcelFilePath</t>
+  </si>
+  <si>
+    <t>Data\Input\BOT2 COO upload test.xlsx</t>
+  </si>
+  <si>
+    <t>PDFDocumentFilePath</t>
+  </si>
+  <si>
+    <t>Data\Input\Pdf Documents</t>
   </si>
 </sst>
 </file>
@@ -599,7 +611,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,7 +637,7 @@
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -636,15 +648,28 @@
         <v>64</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="4"/>
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" tooltip="https://devprj-oscaroltp.int.bkrh.oracleoutsourcing.com/oa_html/oa.jsp?oafunc=oahomepage"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -976,10 +1001,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>63</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -229,13 +229,19 @@
     <t>InputExcelFilePath</t>
   </si>
   <si>
-    <t>Data\Input\BOT2 COO upload test.xlsx</t>
-  </si>
-  <si>
     <t>PDFDocumentFilePath</t>
   </si>
   <si>
     <t>Data\Input\Pdf Documents</t>
+  </si>
+  <si>
+    <t>Data\Input</t>
+  </si>
+  <si>
+    <t>Aravind</t>
+  </si>
+  <si>
+    <t>SharePointcreds</t>
   </si>
 </sst>
 </file>
@@ -610,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,15 +662,15 @@
         <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -956,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="65.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -980,10 +986,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="65.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1010,6 +1016,14 @@
         <v>63</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
